--- a/common/template/document/tabel_teachers_budget.xlsx
+++ b/common/template/document/tabel_teachers_budget.xlsx
@@ -450,7 +450,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,25 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,31 +923,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -997,37 +985,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1403,7 +1385,7 @@
   <dimension ref="A1:AT605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+      <selection activeCell="A19" sqref="A19:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1419,54 +1401,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:46" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="AI3" s="27" t="s">
         <v>17</v>
       </c>
@@ -1477,75 +1459,75 @@
       <c r="AE4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="66" t="s">
+      <c r="AI4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="68"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="45"/>
     </row>
     <row r="5" spans="1:46" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
       <c r="AF5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="71" t="s">
+      <c r="AI5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="73"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="50"/>
     </row>
     <row r="6" spans="1:46" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="D6" s="70" t="s">
+      <c r="B6" s="58"/>
+      <c r="D6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
       <c r="AF6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1559,69 +1541,69 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
     </row>
     <row r="8" spans="1:46" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="D8" s="64">
+      <c r="B8" s="58"/>
+      <c r="D8" s="61">
         <v>0</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
       <c r="AC8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,10 +1665,10 @@
     </row>
     <row r="11" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="18"/>
       <c r="E11" s="30"/>
       <c r="F11" s="22"/>
@@ -1737,10 +1719,10 @@
       <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="3"/>
@@ -1795,8 +1777,8 @@
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1847,8 +1829,8 @@
     </row>
     <row r="14" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,8 +1945,8 @@
     </row>
     <row r="15" spans="1:46" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2017,8 +1999,8 @@
     </row>
     <row r="16" spans="1:46" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2069,8 +2051,8 @@
     </row>
     <row r="17" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2241,272 +2223,272 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:46" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="47" t="s">
+      <c r="P19" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="47" t="s">
+      <c r="Q19" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="S19" s="47" t="s">
+      <c r="S19" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="65">
         <f ca="1">COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN()-15))   : INDIRECT(ADDRESS(ROW(),COLUMN()-1)), "Ф" )</f>
         <v>0</v>
       </c>
-      <c r="U19" s="47" t="s">
+      <c r="U19" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="V19" s="47" t="s">
+      <c r="V19" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="W19" s="47" t="s">
+      <c r="W19" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="X19" s="47" t="s">
+      <c r="X19" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="Y19" s="47" t="s">
+      <c r="Y19" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="Z19" s="47" t="s">
+      <c r="Z19" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AA19" s="47" t="s">
+      <c r="AA19" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="AB19" s="47" t="s">
+      <c r="AB19" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AC19" s="47" t="s">
+      <c r="AC19" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="AD19" s="47" t="s">
+      <c r="AD19" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="AE19" s="47" t="s">
+      <c r="AE19" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="AF19" s="47" t="s">
+      <c r="AF19" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="AG19" s="47" t="s">
+      <c r="AG19" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="AH19" s="47" t="s">
+      <c r="AH19" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="AI19" s="47" t="s">
+      <c r="AI19" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="AJ19" s="47" t="s">
+      <c r="AJ19" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="AK19" s="54">
+      <c r="AK19" s="66">
         <f ca="1">COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN()-32))   : INDIRECT(ADDRESS(ROW(),COLUMN()-1)), "Ф" )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:46" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="48" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="48" t="s">
+      <c r="L20" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="48" t="s">
+      <c r="N20" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="48" t="s">
+      <c r="O20" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="48" t="s">
+      <c r="P20" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="48" t="s">
+      <c r="Q20" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="48" t="s">
+      <c r="S20" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="T20" s="53" t="s">
+      <c r="T20" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="U20" s="48" t="s">
+      <c r="U20" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="V20" s="48" t="s">
+      <c r="V20" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="W20" s="48" t="s">
+      <c r="W20" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="X20" s="48" t="s">
+      <c r="X20" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="Y20" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="Z20" s="48" t="s">
+      <c r="Z20" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="AA20" s="48" t="s">
+      <c r="AA20" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AB20" s="48" t="s">
+      <c r="AB20" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" s="48" t="s">
+      <c r="AC20" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" s="48" t="s">
+      <c r="AD20" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" s="48" t="s">
+      <c r="AE20" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="AF20" s="48" t="s">
+      <c r="AF20" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="AG20" s="48" t="s">
+      <c r="AG20" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="AH20" s="48" t="s">
+      <c r="AH20" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AI20" s="48" t="s">
+      <c r="AI20" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="AJ20" s="48" t="s">
+      <c r="AJ20" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AK20" s="53" t="s">
+      <c r="AK20" s="70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:46" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:46" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="51">
-        <f ca="1">SUM( T20              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="73">
+        <f ca="1">SUM( T20               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="51">
-        <f ca="1">SUM( AK20             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="73">
+        <f ca="1">SUM( AK20              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
     </row>
@@ -2589,13 +2571,13 @@
       <c r="R26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="U26" s="45" t="s">
+      <c r="U26" s="41" t="s">
         <v>80</v>
       </c>
       <c r="Y26" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AC26" s="45" t="s">
+      <c r="AC26" s="41" t="s">
         <v>81</v>
       </c>
       <c r="AK26" s="36"/>
@@ -13594,12 +13576,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="H2:U2"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="E3:Y3"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D7:AB7"/>
@@ -13608,6 +13584,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D8:AB8"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="E3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/common/template/document/tabel_teachers_budget.xlsx
+++ b/common/template/document/tabel_teachers_budget.xlsx
@@ -924,6 +924,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,61 +1010,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:AT605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD21"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1401,54 +1401,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
     </row>
     <row r="3" spans="1:46" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
       <c r="AI3" s="27" t="s">
         <v>17</v>
       </c>
@@ -1459,75 +1459,75 @@
       <c r="AE4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="43" t="s">
+      <c r="AI4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="68"/>
     </row>
     <row r="5" spans="1:46" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
       <c r="AF5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="48" t="s">
+      <c r="AI5" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="50"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="73"/>
     </row>
     <row r="6" spans="1:46" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="61"/>
+      <c r="D6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
       <c r="AF6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1541,69 +1541,69 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
     </row>
     <row r="8" spans="1:46" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="D8" s="61">
+      <c r="B8" s="61"/>
+      <c r="D8" s="64">
         <v>0</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
       <c r="AC8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="11" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="18"/>
       <c r="E11" s="30"/>
       <c r="F11" s="22"/>
@@ -1719,10 +1719,10 @@
       <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="55" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="3"/>
@@ -1777,8 +1777,8 @@
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1829,8 +1829,8 @@
     </row>
     <row r="14" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,8 +1945,8 @@
     </row>
     <row r="15" spans="1:46" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1999,8 +1999,8 @@
     </row>
     <row r="16" spans="1:46" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2051,8 +2051,8 @@
     </row>
     <row r="17" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2223,272 +2223,272 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:46" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="64" t="s">
+      <c r="L19" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="64" t="s">
+      <c r="M19" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="64" t="s">
+      <c r="N19" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="64" t="s">
+      <c r="O19" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="64" t="s">
+      <c r="P19" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="64" t="s">
+      <c r="Q19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="64" t="s">
+      <c r="R19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="S19" s="64" t="s">
+      <c r="S19" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="T19" s="65">
+      <c r="T19" s="45">
         <f ca="1">COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN()-15))   : INDIRECT(ADDRESS(ROW(),COLUMN()-1)), "Ф" )</f>
         <v>0</v>
       </c>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="V19" s="64" t="s">
+      <c r="V19" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="W19" s="64" t="s">
+      <c r="W19" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="X19" s="64" t="s">
+      <c r="X19" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="Y19" s="64" t="s">
+      <c r="Y19" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="Z19" s="64" t="s">
+      <c r="Z19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="AA19" s="64" t="s">
+      <c r="AA19" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AB19" s="64" t="s">
+      <c r="AB19" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AC19" s="64" t="s">
+      <c r="AC19" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AD19" s="64" t="s">
+      <c r="AD19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AE19" s="64" t="s">
+      <c r="AE19" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AF19" s="64" t="s">
+      <c r="AF19" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AG19" s="64" t="s">
+      <c r="AG19" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AH19" s="64" t="s">
+      <c r="AH19" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AI19" s="64" t="s">
+      <c r="AI19" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AJ19" s="64" t="s">
+      <c r="AJ19" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="AK19" s="66">
+      <c r="AK19" s="46">
         <f ca="1">COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN()-32))   : INDIRECT(ADDRESS(ROW(),COLUMN()-1)), "Ф" )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+    <row r="20" spans="1:46" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="63" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="63" t="s">
+      <c r="M20" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="63" t="s">
+      <c r="N20" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="63" t="s">
+      <c r="O20" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="63" t="s">
+      <c r="P20" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="63" t="s">
+      <c r="Q20" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="63" t="s">
+      <c r="R20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="63" t="s">
+      <c r="S20" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="T20" s="70" t="s">
+      <c r="T20" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="U20" s="63" t="s">
+      <c r="U20" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="V20" s="63" t="s">
+      <c r="V20" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="W20" s="63" t="s">
+      <c r="W20" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="X20" s="63" t="s">
+      <c r="X20" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Y20" s="63" t="s">
+      <c r="Y20" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="Z20" s="63" t="s">
+      <c r="Z20" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AA20" s="63" t="s">
+      <c r="AA20" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AB20" s="63" t="s">
+      <c r="AB20" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" s="63" t="s">
+      <c r="AC20" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" s="63" t="s">
+      <c r="AD20" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" s="63" t="s">
+      <c r="AE20" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AF20" s="63" t="s">
+      <c r="AF20" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AG20" s="63" t="s">
+      <c r="AG20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AH20" s="63" t="s">
+      <c r="AH20" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AI20" s="63" t="s">
+      <c r="AI20" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AJ20" s="63" t="s">
+      <c r="AJ20" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AK20" s="70" t="s">
+      <c r="AK20" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:46" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:46" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="73">
-        <f ca="1">SUM( T20               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="73">
-        <f ca="1">SUM( AK20              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="53" t="e">
+        <f ca="1">SUMPRODUCT(( T20                  : INDIRECT(ADDRESS(ROW()-1,COLUMN())))*ISEVEN(ROW( T20                  : INDIRECT(ADDRESS(ROW()-1,COLUMN())))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="53">
+        <f ca="1">SUM( AK20               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
     </row>
@@ -13576,6 +13576,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="E3:Y3"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D7:AB7"/>
@@ -13584,12 +13590,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D8:AB8"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="H2:U2"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="E3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/common/template/document/tabel_teachers_budget.xlsx
+++ b/common/template/document/tabel_teachers_budget.xlsx
@@ -949,36 +949,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,6 +978,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:AT605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1401,54 +1401,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:46" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
       <c r="AI3" s="27" t="s">
         <v>17</v>
       </c>
@@ -1459,75 +1459,75 @@
       <c r="AE4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="66" t="s">
+      <c r="AI4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="68"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="58"/>
     </row>
     <row r="5" spans="1:46" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
       <c r="AF5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="71" t="s">
+      <c r="AI5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="73"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
     </row>
     <row r="6" spans="1:46" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="D6" s="70" t="s">
+      <c r="B6" s="71"/>
+      <c r="D6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
       <c r="AF6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1541,69 +1541,69 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
     </row>
     <row r="8" spans="1:46" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="D8" s="64">
+      <c r="B8" s="71"/>
+      <c r="D8" s="74">
         <v>0</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
       <c r="AC8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="11" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="18"/>
       <c r="E11" s="30"/>
       <c r="F11" s="22"/>
@@ -1719,10 +1719,10 @@
       <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="65" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="3"/>
@@ -1777,8 +1777,8 @@
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1829,8 +1829,8 @@
     </row>
     <row r="14" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,8 +1945,8 @@
     </row>
     <row r="15" spans="1:46" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1999,8 +1999,8 @@
     </row>
     <row r="16" spans="1:46" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2051,8 +2051,8 @@
     </row>
     <row r="17" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2468,7 +2468,7 @@
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
       <c r="T21" s="53" t="e">
-        <f ca="1">SUMPRODUCT(( T20                  : INDIRECT(ADDRESS(ROW()-1,COLUMN())))*ISEVEN(ROW( T20                  : INDIRECT(ADDRESS(ROW()-1,COLUMN())))))</f>
+        <f ca="1">SUMPRODUCT(( T20                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())))*ISEVEN(ROW( T20                   : INDIRECT(ADDRESS(ROW()-1,COLUMN())))))</f>
         <v>#VALUE!</v>
       </c>
       <c r="U21" s="52"/>
@@ -2487,9 +2487,9 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="52"/>
       <c r="AJ21" s="52"/>
-      <c r="AK21" s="53">
-        <f ca="1">SUM( AK20               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
-        <v>0</v>
+      <c r="AK21" s="53" t="e">
+        <f ca="1">SUMPRODUCT(( AK20                      : INDIRECT(ADDRESS(ROW()-1,COLUMN())))*ISEVEN(ROW( AK20                      : INDIRECT(ADDRESS(ROW()-1,COLUMN())))))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -13576,12 +13576,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="H2:U2"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="E3:Y3"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D7:AB7"/>
@@ -13590,6 +13584,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D8:AB8"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="E3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
